--- a/Phenoloxidase Activity data/Data for 150 samples/19. Phenoloxidase 20-08-24 (SEG 43 - 50, AEG - 33).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/19. Phenoloxidase 20-08-24 (SEG 43 - 50, AEG - 33).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\Data for 150 samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1023,11 +1023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240488200"/>
-        <c:axId val="240488584"/>
+        <c:axId val="246212656"/>
+        <c:axId val="247152104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240488200"/>
+        <c:axId val="246212656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,12 +1084,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240488584"/>
+        <c:crossAx val="247152104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240488584"/>
+        <c:axId val="247152104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240488200"/>
+        <c:crossAx val="246212656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1378,11 +1378,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241214400"/>
-        <c:axId val="241219104"/>
+        <c:axId val="246572688"/>
+        <c:axId val="246573080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241214400"/>
+        <c:axId val="246572688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,12 +1439,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241219104"/>
+        <c:crossAx val="246573080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241219104"/>
+        <c:axId val="246573080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241214400"/>
+        <c:crossAx val="246572688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1763,11 +1763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241214792"/>
-        <c:axId val="241217536"/>
+        <c:axId val="246576608"/>
+        <c:axId val="246573864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241214792"/>
+        <c:axId val="246576608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,12 +1824,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241217536"/>
+        <c:crossAx val="246573864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241217536"/>
+        <c:axId val="246573864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +1886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241214792"/>
+        <c:crossAx val="246576608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2154,11 +2154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240381848"/>
-        <c:axId val="240382232"/>
+        <c:axId val="245983216"/>
+        <c:axId val="246017016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240381848"/>
+        <c:axId val="245983216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,12 +2215,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240382232"/>
+        <c:crossAx val="246017016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240382232"/>
+        <c:axId val="246017016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,7 +2277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240381848"/>
+        <c:crossAx val="245983216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2539,11 +2539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240701080"/>
-        <c:axId val="241009880"/>
+        <c:axId val="246123680"/>
+        <c:axId val="246124064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240701080"/>
+        <c:axId val="246123680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2600,12 +2600,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241009880"/>
+        <c:crossAx val="246124064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241009880"/>
+        <c:axId val="246124064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2662,7 +2662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240701080"/>
+        <c:crossAx val="246123680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2930,11 +2930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241074624"/>
-        <c:axId val="241100928"/>
+        <c:axId val="246215136"/>
+        <c:axId val="246114968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241074624"/>
+        <c:axId val="246215136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,12 +2991,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241100928"/>
+        <c:crossAx val="246114968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241100928"/>
+        <c:axId val="246114968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,7 +3053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241074624"/>
+        <c:crossAx val="246215136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3321,11 +3321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="281222680"/>
-        <c:axId val="241190152"/>
+        <c:axId val="247252936"/>
+        <c:axId val="247253320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="281222680"/>
+        <c:axId val="247252936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3382,12 +3382,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241190152"/>
+        <c:crossAx val="247253320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241190152"/>
+        <c:axId val="247253320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3444,7 +3444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281222680"/>
+        <c:crossAx val="247252936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3720,11 +3720,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241072520"/>
-        <c:axId val="241072912"/>
+        <c:axId val="244708104"/>
+        <c:axId val="244706144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241072520"/>
+        <c:axId val="244708104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,12 +3781,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241072912"/>
+        <c:crossAx val="244706144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241072912"/>
+        <c:axId val="244706144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3843,7 +3843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241072520"/>
+        <c:crossAx val="244708104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3907,6 +3907,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4125,11 +4126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241074088"/>
-        <c:axId val="241213224"/>
+        <c:axId val="246577784"/>
+        <c:axId val="246577392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241074088"/>
+        <c:axId val="246577784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4186,12 +4187,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241213224"/>
+        <c:crossAx val="246577392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241213224"/>
+        <c:axId val="246577392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4248,7 +4249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241074088"/>
+        <c:crossAx val="246577784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4312,6 +4313,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4516,11 +4518,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241212832"/>
-        <c:axId val="241212440"/>
+        <c:axId val="246578176"/>
+        <c:axId val="246571120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241212832"/>
+        <c:axId val="246578176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,12 +4579,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241212440"/>
+        <c:crossAx val="246571120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241212440"/>
+        <c:axId val="246571120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4639,7 +4641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241212832"/>
+        <c:crossAx val="246578176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4703,6 +4705,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4907,11 +4910,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241213616"/>
-        <c:axId val="241214008"/>
+        <c:axId val="246575432"/>
+        <c:axId val="246571904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241213616"/>
+        <c:axId val="246575432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4968,12 +4971,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241214008"/>
+        <c:crossAx val="246571904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241214008"/>
+        <c:axId val="246571904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5030,7 +5033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241213616"/>
+        <c:crossAx val="246575432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11800,8 +11803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="O131" sqref="O131"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:L129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15819,8 +15822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W140"/>
   <sheetViews>
-    <sheetView topLeftCell="G106" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20825,8 +20828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
